--- a/perl/正则原字符.xlsx
+++ b/perl/正则原字符.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>原字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,14 +101,6 @@
   </si>
   <si>
     <t>反斜线-大于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词的起始位置（某些版本的egrep可能不支持）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词的结束位置（某些版本的egrep可能不支持）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,31 +196,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>容许匹配一次，但非必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间量词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少需要min次，至多max次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容许匹配一次，但非必须（单次可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>可以匹配任意多次，也可能不匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>至少匹配一次，至多可能任意多次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>区间量词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至少需要min次，至多max次</t>
+    <t>\t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制表符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换行符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回车符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何空白字符（空格、制表、进纸等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[a-zA-Z0-9](在\w+中很有用，可以用来匹配一个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除\w之外的任何字符，即[^a-zA-Z0-9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0-9],即数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除\d之外的任何字符，即[^0-9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?:…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来分组文本但并不捕获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单词的起始位置（某些版本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egrep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可能不支持）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单词的结束位置（某些版本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egrep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可能不支持）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perl:单词分界符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?=…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?&lt;=…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从右向左查看文本eg:(?&lt;=\d)当前位置左边有一个数字则匹配成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从左向右查看文本eg:(?=\d)当前位置右边有一个数字则匹配成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯定顺序环视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯定逆序环视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?!...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(?&lt;!...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否定顺序环视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否定逆序环视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>子表达式不能匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左侧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>子表达式不能匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>右侧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意非空白字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -354,10 +586,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -679,17 +920,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -727,154 +968,301 @@
     </row>
     <row r="5" spans="1:4" ht="40.5">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="27">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="27">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9" t="s">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="27">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="27">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" ht="27">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="27">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A14:C14"/>
+  <mergeCells count="4">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
